--- a/biology/Médecine/Denis_Mitchison/Denis_Mitchison.xlsx
+++ b/biology/Médecine/Denis_Mitchison/Denis_Mitchison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denis Anthony Mitchison (6 septembre 1919 - 2 juillet 2018) est un bactériologiste britannique[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denis Anthony Mitchison (6 septembre 1919 - 2 juillet 2018) est un bactériologiste britannique,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mitchison est né à Oxford en 1919[3], le fils de l'homme politique travailliste Dick Mitchison et de sa femme, l'écrivaine Naomi Haldane. Son oncle est le biologiste John Burdon Sanderson Haldane et son grand-père le physiologiste John Scott Haldane. Ses frères cadets sont les zoologistes Avrion Mitchison et Murdoch Mitchison.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mitchison est né à Oxford en 1919, le fils de l'homme politique travailliste Dick Mitchison et de sa femme, l'écrivaine Naomi Haldane. Son oncle est le biologiste John Burdon Sanderson Haldane et son grand-père le physiologiste John Scott Haldane. Ses frères cadets sont les zoologistes Avrion Mitchison et Murdoch Mitchison.
 En 1954, la mère de Denis Mitchison écrit le livre fantastique Graeme and the Dragon, dans lequel le protagoniste est son petit-fils, le fils de Denis, Graeme Mitchison.
 Il fait ses études à la Dragon School d'Oxford et à l'Abbotsholme School, puis au Trinity College de Cambridge, où il étudie les sciences naturelles, obtenant un diplôme de première classe et une bourse d'études supérieures. Ce n'est qu'alors qu'il se tourne vers la médecine, diplômé du Collège universitaire en 1943, et choisit une formation postdoctorale en pathologie.
 </t>
@@ -544,7 +558,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence à l'hôpital de Brompton au moment où le premier essai clinique avec une admission randomisée entre le traitement de la tuberculose pulmonaire (TB) avec la streptomycine ou avec le repos au lit seul est mené.
 Mitchison poursuit ensuite son intérêt de toute une vie pour le traitement de la tuberculose, en participant aux essais cliniques organisés par l'unité de recherche sur la tuberculose du Conseil de recherches médicales (MRC TRU) avec le directeur Philip D'Arcy Hart.
@@ -581,10 +597,12 @@
           <t>Après la retraite</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après sa retraite théorique[3] en 1985, il continue à travailler d'abord à la Royal Postgraduate Medical School de Hammersmith, puis à St George's, Université de Londres. Il développe la technique de mesure de l'activité bactéricide précoce des médicaments, qui est maintenant une pratique courante comme première étape de la phase II du développement clinique de nouveaux médicaments avec Amina Jindani et ses collègues en Afrique du Sud. Il introduit également le concept de l'étude de phase II de 8 semaines avec la proportion de patients obtenant une culture d'expectoration négative à 8 semaines, une évaluation standard dans la plupart de ces études. Plus récemment, il développe un nouveau type d'étude de phase II de 8 semaines utilisant la modélisation du nombre de TB dans les crachats pendant le traitement (avec Geraint Davies et le MRC sud-africain). Il travaille sur plusieurs nouveaux médicaments antituberculeux et participe à des essais cliniques sur des rifamycines à forte dose.
-Mitchison arrête finalement le travail régulier à l'âge de 95 ans. Il est décédé à Kingston en juillet 2018 à l'âge de 98 ans[4] d'une embolie pulmonaire bilatérale[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après sa retraite théorique en 1985, il continue à travailler d'abord à la Royal Postgraduate Medical School de Hammersmith, puis à St George's, Université de Londres. Il développe la technique de mesure de l'activité bactéricide précoce des médicaments, qui est maintenant une pratique courante comme première étape de la phase II du développement clinique de nouveaux médicaments avec Amina Jindani et ses collègues en Afrique du Sud. Il introduit également le concept de l'étude de phase II de 8 semaines avec la proportion de patients obtenant une culture d'expectoration négative à 8 semaines, une évaluation standard dans la plupart de ces études. Plus récemment, il développe un nouveau type d'étude de phase II de 8 semaines utilisant la modélisation du nombre de TB dans les crachats pendant le traitement (avec Geraint Davies et le MRC sud-africain). Il travaille sur plusieurs nouveaux médicaments antituberculeux et participe à des essais cliniques sur des rifamycines à forte dose.
+Mitchison arrête finalement le travail régulier à l'âge de 95 ans. Il est décédé à Kingston en juillet 2018 à l'âge de 98 ans d'une embolie pulmonaire bilatérale.
 </t>
         </is>
       </c>
